--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
     <t>aumento</t>
   </si>
   <si>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
     <t>deferimento liminar</t>
   </si>
   <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>referida decisão</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>cpp art</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
     <t>manifesta</t>
   </si>
   <si>
-    <t>deferi</t>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>julgado turma</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>justiça nº</t>
+  </si>
+  <si>
+    <t>jurisprudenciais</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>mulheres</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>indiciado réu</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
   </si>
   <si>
     <t>implicou deferimento</t>
   </si>
   <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>deferida</t>
+    <t>paciente decretada</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>relativização</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>resumiu apreciou</t>
+  </si>
+  <si>
+    <t>senha</t>
   </si>
   <si>
     <t>sob código</t>
   </si>
   <si>
-    <t>opinou concessão</t>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>tutela</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>brasília residência</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>autorizado</t>
+  </si>
+  <si>
+    <t>código senha</t>
   </si>
   <si>
     <t>contornos</t>
   </si>
   <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>referida decisão</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>senha</t>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>assessoria</t>
+  </si>
+  <si>
+    <t>art lxi</t>
+  </si>
+  <si>
+    <t>circunstâncias favoráveis</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>cautelar penal</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>princípio liberdade</t>
+  </si>
+  <si>
+    <t>rtj rel</t>
   </si>
   <si>
     <t>senha primeira</t>
   </si>
   <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>min sepúlveda</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>tutela cautelar</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>infligir</t>
+  </si>
+  <si>
+    <t>apreciou presente</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>informações paciente</t>
+  </si>
+  <si>
+    <t>instituto prisão</t>
+  </si>
+  <si>
+    <t>irrecorrível</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
   </si>
   <si>
     <t>liminar deferida</t>
   </si>
   <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>legitima</t>
-  </si>
-  <si>
-    <t>justiça nº</t>
-  </si>
-  <si>
-    <t>mello hc</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>poder público</t>
-  </si>
-  <si>
-    <t>relativização</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>república parecer</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>sistema jurídico</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>jurisprudenciais</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>cautelar pois</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>deferimento</t>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>enquanto medida</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>natureza infração</t>
   </si>
   <si>
     <t>deferida assessoria</t>
   </si>
   <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>condenação penal</t>
+  </si>
+  <si>
     <t>http sob</t>
   </si>
   <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>indiciado réu</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>art lxi</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>condenação penal</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>constitucional cf</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>cf art</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>rtj rel</t>
-  </si>
-  <si>
-    <t>punir</t>
-  </si>
-  <si>
-    <t>cautelar penal</t>
-  </si>
-  <si>
-    <t>brasília residência</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>tutela cautelar</t>
-  </si>
-  <si>
-    <t>punição</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>princípio liberdade</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>art lvii</t>
-  </si>
-  <si>
-    <t>irrecorrível</t>
-  </si>
-  <si>
     <t>infligir punição</t>
-  </si>
-  <si>
-    <t>infligir</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>manifesta ilegalidade</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>enquanto medida</t>
-  </si>
-  <si>
-    <t>natureza infração</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>pertence grifei</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>instituto prisão</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -28,298 +28,298 @@
     <t>aumento</t>
   </si>
   <si>
+    <t>xliii</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>julgado turma</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>liberdade provisória</t>
+  </si>
+  <si>
+    <t>assessoria</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
     <t>deferi</t>
   </si>
   <si>
-    <t>deferimento</t>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>manifesta ilegalidade</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>restritiva</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>provisória formulado</t>
+  </si>
+  <si>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>tutela cautelar</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>lxi</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
   </si>
   <si>
     <t>deferimento liminar</t>
   </si>
   <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>referida decisão</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>cpp art</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>manifesta</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>substituir</t>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>desta suprema</t>
+  </si>
+  <si>
+    <t>definitivo após</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>benefício liberdade</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>flagrante tráfico</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>pertence grifei</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>sistema jurídico</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>princípio liberdade</t>
+  </si>
+  <si>
+    <t>rtj rel</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>punir</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>paulo indeferiu</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>mendes hc</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>art lvii</t>
+  </si>
+  <si>
+    <t>art lxi</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>condenação penal</t>
+  </si>
+  <si>
+    <t>constitucional cf</t>
+  </si>
+  <si>
+    <t>defiro</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>fiança</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
   </si>
   <si>
     <t>http</t>
   </si>
   <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>justiça nº</t>
-  </si>
-  <si>
-    <t>jurisprudenciais</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>mulheres</t>
-  </si>
-  <si>
-    <t>informado</t>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>inciso xliii</t>
+  </si>
+  <si>
+    <t>indefiro pedido</t>
+  </si>
+  <si>
+    <t>infligir</t>
+  </si>
+  <si>
+    <t>infligir punição</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>instituto prisão</t>
+  </si>
+  <si>
+    <t>irrecorrível</t>
   </si>
   <si>
     <t>indiciado réu</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>paciente decretada</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>relativização</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>resumiu apreciou</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>tutela</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>brasília residência</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>autorizado</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>art lxi</t>
-  </si>
-  <si>
-    <t>circunstâncias favoráveis</t>
-  </si>
-  <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>cautelar pois</t>
-  </si>
-  <si>
-    <t>cautelar penal</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>princípio liberdade</t>
-  </si>
-  <si>
-    <t>rtj rel</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>tutela cautelar</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>infligir</t>
-  </si>
-  <si>
-    <t>apreciou presente</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>instituto prisão</t>
-  </si>
-  <si>
-    <t>irrecorrível</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>enquanto medida</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>natureza infração</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>condenação penal</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>infligir punição</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
+    <t>indeferiu</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>estado paulo</t>
+  </si>
+  <si>
+    <t>óbice</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>manifesta ilegalidade</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>liminarmente pedido</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>anotou</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>anos dois</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>processo revelador</t>
+  </si>
+  <si>
+    <t>providência procuradoria</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>substituir prisão</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>presa</t>
+  </si>
+  <si>
+    <t>justiça nº</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>deste habeas</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>causas aumento</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>publiquem</t>
+  </si>
+  <si>
+    <t>colham</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>república parecer</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>revelador</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>procuradoria geral</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>procuradoria</t>
+  </si>
+  <si>
+    <t>ser julgado</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>teixeira</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>assessoria</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>brasília residência</t>
+  </si>
+  <si>
+    <t>prestadas gabinete</t>
+  </si>
+  <si>
+    <t>colham parecer</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>habeas contra</t>
+  </si>
+  <si>
+    <t>idêntica medida</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>informações paciente</t>
+  </si>
+  <si>
+    <t>julgado turma</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>juízo criminal</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
     <t>decisão proferida</t>
   </si>
   <si>
-    <t>aumento</t>
-  </si>
-  <si>
-    <t>xliii</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>liberdade provisória</t>
-  </si>
-  <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>deferido</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>deferi</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>manifesta ilegalidade</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>restritiva</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>provisória formulado</t>
-  </si>
-  <si>
-    <t>cautelar pois</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>tutela cautelar</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>lxi</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
+    <t>decisão implicou</t>
   </si>
   <si>
     <t>código senha</t>
   </si>
   <si>
+    <t>paulo indeferiu</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
     <t>contornos impetração</t>
   </si>
   <si>
-    <t>desta suprema</t>
-  </si>
-  <si>
-    <t>definitivo após</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>benefício liberdade</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>flagrante tráfico</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>pertence grifei</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>sistema jurídico</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>princípio liberdade</t>
-  </si>
-  <si>
-    <t>rtj rel</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>punir</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>paulo indeferiu</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>mendes hc</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>art lvii</t>
-  </si>
-  <si>
-    <t>art lxi</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>condenação penal</t>
-  </si>
-  <si>
-    <t>constitucional cf</t>
-  </si>
-  <si>
-    <t>defiro</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>fiança</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>inciso xliii</t>
-  </si>
-  <si>
-    <t>indefiro pedido</t>
-  </si>
-  <si>
-    <t>infligir</t>
-  </si>
-  <si>
-    <t>infligir punição</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>instituto prisão</t>
-  </si>
-  <si>
-    <t>irrecorrível</t>
-  </si>
-  <si>
-    <t>indiciado réu</t>
+    <t>óbice previsto</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>indeferiu</t>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>assessoria</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>justiça nº</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>formalizada superior</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>julgado turma</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>aurélio assessor</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>liberdade restritiva</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>relativização</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>manifesta</t>
+  </si>
+  <si>
+    <t>república parecer</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>mulheres</t>
+  </si>
+  <si>
+    <t>referida decisão</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>paciente decretada</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>indispensável custódia</t>
+  </si>
+  <si>
+    <t>segundo autos</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>sob argumento</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
+    <t>sumária</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>causas aumento</t>
+  </si>
+  <si>
+    <t>circunstâncias favoráveis</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>cpp art</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
   </si>
   <si>
     <t>deferimento</t>
   </si>
   <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>estado paulo</t>
-  </si>
-  <si>
-    <t>óbice</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>deferi</t>
-  </si>
-  <si>
-    <t>relatório http</t>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>ser julgado</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>previstas art</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>procuradoria geral</t>
+  </si>
+  <si>
+    <t>restritiva</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>brasília residência</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>decisão implicou</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>informações paciente</t>
   </si>
   <si>
     <t>manifesta ilegalidade</t>
   </si>
   <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>liminarmente pedido</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>anotou</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>anos dois</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>processo revelador</t>
-  </si>
-  <si>
-    <t>providência procuradoria</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>substituir prisão</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>xliii constituição</t>
-  </si>
-  <si>
-    <t>presa</t>
-  </si>
-  <si>
-    <t>justiça nº</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>deste habeas</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>causas aumento</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>publiquem</t>
-  </si>
-  <si>
-    <t>colham</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>república parecer</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>revelador</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>procuradoria geral</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>procuradoria</t>
-  </si>
-  <si>
-    <t>ser julgado</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>substituir</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>teixeira</t>
-  </si>
-  <si>
-    <t>vedação liberdade</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>brasília residência</t>
-  </si>
-  <si>
-    <t>prestadas gabinete</t>
-  </si>
-  <si>
-    <t>colham parecer</t>
-  </si>
-  <si>
-    <t>liminar assessor</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>habeas contra</t>
-  </si>
-  <si>
-    <t>idêntica medida</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>juízo criminal</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>decisão implicou</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>paulo indeferiu</t>
+    <t>nº ministro</t>
   </si>
   <si>
     <t>precário</t>
   </si>
   <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>óbice previsto</t>
+    <t>jurisprudenciais</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.046875</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.046875</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03125</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.03125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.015625</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.015625</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>infrações</t>
+  </si>
+  <si>
+    <t>estado paulo</t>
+  </si>
+  <si>
     <t>deferi</t>
   </si>
   <si>
-    <t>aumento</t>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>cpp art</t>
+  </si>
+  <si>
+    <t>providência procuradoria</t>
+  </si>
+  <si>
+    <t>liberdade restritiva</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>fiança</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>inexistir ilegalidade</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>acauteladora república</t>
+  </si>
+  <si>
+    <t>provisória formulado</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>requereu campo</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>atacado nesta</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>substituição pena</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>sistema jurídico</t>
+  </si>
+  <si>
+    <t>restritiva</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>relator hc</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>república parecer</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>óbice previsto</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>benefício liberdade</t>
+  </si>
+  <si>
+    <t>aurélio assessor</t>
+  </si>
+  <si>
+    <t>atipicidade conduta</t>
   </si>
   <si>
     <t>deferimento liminar</t>
   </si>
   <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>art lxi</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>alcance</t>
+  </si>
+  <si>
+    <t>causas aumento</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>art lvii</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
     <t>arquivado definitivo</t>
   </si>
   <si>
-    <t>assessoria</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
   </si>
   <si>
     <t>código senha</t>
   </si>
   <si>
-    <t>justiça nº</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>formalizada superior</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>julgado turma</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>aurélio assessor</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>república concessão</t>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
   </si>
   <si>
     <t>informado</t>
   </si>
   <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>irrecorrível</t>
+  </si>
+  <si>
     <t>liminar assessor</t>
   </si>
   <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>relativização</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
+    <t>eis informado</t>
   </si>
   <si>
     <t>liminar suspender</t>
   </si>
   <si>
-    <t>manifesta</t>
-  </si>
-  <si>
-    <t>república parecer</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>mulheres</t>
-  </si>
-  <si>
-    <t>referida decisão</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>paciente decretada</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>indispensável custódia</t>
-  </si>
-  <si>
-    <t>segundo autos</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>sob argumento</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>sumária</t>
-  </si>
-  <si>
-    <t>substituir</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>causas aumento</t>
-  </si>
-  <si>
-    <t>circunstâncias favoráveis</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>cpp art</t>
-  </si>
-  <si>
-    <t>sob código</t>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>definitivo após</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>penas restritivas</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
   </si>
   <si>
     <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>deferimento</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>ser julgado</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>previstas art</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>procuradoria geral</t>
-  </si>
-  <si>
-    <t>restritiva</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>brasília residência</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>decisão implicou</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>manifesta ilegalidade</t>
-  </si>
-  <si>
-    <t>nº ministro</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>jurisprudenciais</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.0390625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.0390625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0.0390625</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.02</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.01</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="69" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -25,271 +25,289 @@
     <t>aumento</t>
   </si>
   <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>deferi</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>conceder</t>
+  </si>
+  <si>
+    <t>súmula</t>
+  </si>
+  <si>
+    <t>lxi</t>
+  </si>
+  <si>
+    <t>infrações</t>
+  </si>
+  <si>
+    <t>concessão</t>
+  </si>
+  <si>
+    <t>atipicidade conduta</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>anotou</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>revogado</t>
+  </si>
+  <si>
+    <t>provisória formulado</t>
+  </si>
+  <si>
+    <t>estado paulo</t>
+  </si>
+  <si>
     <t>concessão ordem</t>
   </si>
   <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>infrações</t>
-  </si>
-  <si>
-    <t>estado paulo</t>
-  </si>
-  <si>
-    <t>deferi</t>
+    <t>http</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>após trânsito</t>
+  </si>
+  <si>
+    <t>óbice previsto</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>substituir</t>
+  </si>
+  <si>
+    <t>implemento liminar</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>procuradoria geral</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>cpp art</t>
+  </si>
+  <si>
+    <t>atacado nesta</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>substituição pena</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>flagrante preventiva</t>
+  </si>
+  <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>alcance</t>
+  </si>
+  <si>
+    <t>aurélio assessor</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>impetração eis</t>
   </si>
   <si>
     <t>resumida prisão</t>
   </si>
   <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>cpp art</t>
+    <t>decisão implicou</t>
   </si>
   <si>
     <t>providência procuradoria</t>
   </si>
   <si>
-    <t>liberdade restritiva</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>fiança</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>inexistir ilegalidade</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>flagrante preventiva</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>acauteladora república</t>
-  </si>
-  <si>
-    <t>provisória formulado</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>requereu campo</t>
-  </si>
-  <si>
-    <t>autoridade judiciária</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>atacado nesta</t>
-  </si>
-  <si>
-    <t>http</t>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
   </si>
   <si>
     <t>liminar espécie</t>
   </si>
   <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>assessoria prestou</t>
+  </si>
+  <si>
     <t>suspender</t>
   </si>
   <si>
-    <t>substituição pena</t>
-  </si>
-  <si>
-    <t>substituir</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>sistema jurídico</t>
-  </si>
-  <si>
-    <t>restritiva</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>relator hc</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>república parecer</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>óbice previsto</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>benefício liberdade</t>
-  </si>
-  <si>
-    <t>aurélio assessor</t>
-  </si>
-  <si>
-    <t>atipicidade conduta</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>art lxi</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>alcance</t>
-  </si>
-  <si>
-    <t>causas aumento</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>art lvii</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
   </si>
   <si>
     <t>arquivado definitivo</t>
   </si>
   <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>irrecorrível</t>
-  </si>
-  <si>
-    <t>liminar assessor</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>efêmero</t>
+    <t>julgado decisão</t>
   </si>
   <si>
     <t>deserção</t>
@@ -302,24 +320,6 @@
   </si>
   <si>
     <t>penas restritivas</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.046875</v>
+        <v>0.1031977038218092</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.046875</v>
+        <v>0.05478651651660248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0390625</v>
+        <v>0.04033769969308321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0390625</v>
+        <v>0.03458784793173555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0390625</v>
+        <v>0.03277355529128814</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.03125</v>
+        <v>0.02725556380699804</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0234375</v>
+        <v>0.02681517936149438</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0234375</v>
+        <v>0.02559531690997367</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0234375</v>
+        <v>0.02535252413110185</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0234375</v>
+        <v>0.02348901723388672</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0234375</v>
+        <v>0.02330721276921585</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0234375</v>
+        <v>0.0231069717870586</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.0234375</v>
+        <v>0.022400011906838</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0234375</v>
+        <v>0.0211149620333725</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0234375</v>
+        <v>0.02001058722441939</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0234375</v>
+        <v>0.01999015164910712</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.015625</v>
+        <v>0.0186072945042917</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.015625</v>
+        <v>0.0185662365991095</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.015625</v>
+        <v>0.01834187539719714</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.015625</v>
+        <v>0.01789563415313043</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.015625</v>
+        <v>0.017582270467649</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.015625</v>
+        <v>0.01709308907144074</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.015625</v>
+        <v>0.01600385091047992</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.015625</v>
+        <v>0.01569457222971444</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.015625</v>
+        <v>0.01545620138531746</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.015625</v>
+        <v>0.01364670062687473</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.015625</v>
+        <v>0.01335326108398367</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.015625</v>
+        <v>0.0131637000263601</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.015625</v>
+        <v>0.01312447074968558</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.015625</v>
+        <v>0.01210070433937228</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.015625</v>
+        <v>0.01205784681589256</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.015625</v>
+        <v>0.01197309328782894</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.0078125</v>
+        <v>0.01184660696260815</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.0078125</v>
+        <v>0.01118268247009469</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.0078125</v>
+        <v>0.01075091954720798</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.0078125</v>
+        <v>0.009941260787806541</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.0078125</v>
+        <v>0.009761267711416695</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.0078125</v>
+        <v>0.00970282748856874</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.0078125</v>
+        <v>0.009392706902489459</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.0078125</v>
+        <v>0.008948333067860196</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.0078125</v>
+        <v>0.008288604203504839</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.0078125</v>
+        <v>0.008211160799713395</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.0078125</v>
+        <v>0.007591229060434783</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.0078125</v>
+        <v>0.007289891305563414</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.0078125</v>
+        <v>0.007054987947386627</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.0078125</v>
+        <v>0.006991488923779454</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.0078125</v>
+        <v>0.006916418731243883</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.0078125</v>
+        <v>0.006566350120368279</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.0078125</v>
+        <v>0.00595319455124094</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.0078125</v>
+        <v>0.005853785575607222</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.0078125</v>
+        <v>0.005750879280735606</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.0078125</v>
+        <v>0.005307884132640101</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.0078125</v>
+        <v>0.005051521653337819</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.0078125</v>
+        <v>0.004974122369715398</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.0078125</v>
+        <v>0.004951802235623501</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.0078125</v>
+        <v>0.004503374876197154</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.0078125</v>
+        <v>0.004441262629915884</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.0078125</v>
+        <v>0.004151582502717807</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.0078125</v>
+        <v>0.004130357215256152</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.0078125</v>
+        <v>0.003949535651691389</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.0078125</v>
+        <v>0.0034845457135132</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.0078125</v>
+        <v>0.002633748010234963</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.0078125</v>
+        <v>0.002493470621379096</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.0078125</v>
+        <v>0.00236224405581492</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0078125</v>
+        <v>0.002348739843654304</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.0078125</v>
+        <v>0.002240246007168401</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.0078125</v>
+        <v>0.001942645765731011</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.001388149292761727</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.00129981372927615</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.001268710614163553</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.001200327079037806</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.001116449504221238</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.001078448054960056</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.001075407270334004</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.0008253105170278385</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.0008207599391200881</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.00063720920456358</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.000459570610741877</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.0003972599159088144</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.0003705336908914052</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0003694156196844662</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.0003292736645154575</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0003170359686630206</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.000314760707468709</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.0002228340415493719</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.000210494822964386</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.0002069571841914102</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.0001337828231625659</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.0001123697389546496</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>7.797614719532724E-05</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1.301230214895447E-05</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1.083511795847874E-05</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>4.934035067312277E-17</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2.590436534915731E-17</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>9.936820084332223E-18</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>6.525022471728193E-18</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/modeling/results/feature_imp_text.xlsx
+++ b/modeling/results/feature_imp_text.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>aumento</t>
-  </si>
-  <si>
-    <t>senha relatório</t>
-  </si>
-  <si>
-    <t>deferi</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>conceder</t>
-  </si>
-  <si>
-    <t>súmula</t>
-  </si>
-  <si>
-    <t>lxi</t>
-  </si>
-  <si>
-    <t>infrações</t>
-  </si>
-  <si>
-    <t>concessão</t>
-  </si>
-  <si>
-    <t>atipicidade conduta</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>anotou</t>
-  </si>
-  <si>
-    <t>autoridade judiciária</t>
-  </si>
-  <si>
-    <t>deferida</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>liminar assessor</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>revogado</t>
-  </si>
-  <si>
-    <t>provisória formulado</t>
-  </si>
-  <si>
-    <t>estado paulo</t>
-  </si>
-  <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>após trânsito</t>
-  </si>
-  <si>
-    <t>óbice previsto</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>substituir</t>
-  </si>
-  <si>
-    <t>implemento liminar</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>procuradoria geral</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>cpp art</t>
-  </si>
-  <si>
-    <t>atacado nesta</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>deferimento</t>
-  </si>
-  <si>
-    <t>código senha</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>afastamento enunciado</t>
-  </si>
-  <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>substituição pena</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>flagrante preventiva</t>
-  </si>
-  <si>
-    <t>precário efêmero</t>
-  </si>
-  <si>
-    <t>precário</t>
-  </si>
-  <si>
-    <t>efêmero</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>campo precário</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>alcance</t>
-  </si>
-  <si>
-    <t>aurélio assessor</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
-  </si>
-  <si>
-    <t>informado</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>resumida prisão</t>
-  </si>
-  <si>
-    <t>decisão implicou</t>
-  </si>
-  <si>
-    <t>providência procuradoria</t>
-  </si>
-  <si>
-    <t>contornos</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
-  </si>
-  <si>
-    <t>ficou</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>assessoria prestou</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>julgado decisão</t>
-  </si>
-  <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>definitivo após</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
-  </si>
-  <si>
-    <t>penas restritivas</t>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F19</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1031977038218092</v>
+        <v>0.02863512583105958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05478651651660248</v>
+        <v>0.02035917574955497</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04033769969308321</v>
+        <v>0.01916224275496163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03458784793173555</v>
+        <v>0.01682371147711735</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03277355529128814</v>
+        <v>0.01660332370507941</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.02725556380699804</v>
+        <v>0.01546876708363935</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02681517936149438</v>
+        <v>0.01485855904445717</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02559531690997367</v>
+        <v>0.0145040054016213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02535252413110185</v>
+        <v>0.01438784110831927</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02348901723388672</v>
+        <v>0.01425208869861716</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02330721276921585</v>
+        <v>0.01388404128528337</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0231069717870586</v>
+        <v>0.01293891369337104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.022400011906838</v>
+        <v>0.01219383395292858</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0211149620333725</v>
+        <v>0.01205173283907231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02001058722441939</v>
+        <v>0.0117278360419805</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01999015164910712</v>
+        <v>0.01172152377521235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0186072945042917</v>
+        <v>0.01170911820779054</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.0185662365991095</v>
+        <v>0.01168259360490896</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01834187539719714</v>
+        <v>0.01164020343475761</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01789563415313043</v>
+        <v>0.01160580807308221</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.017582270467649</v>
+        <v>0.01159250877796405</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01709308907144074</v>
+        <v>0.01146636129158476</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01600385091047992</v>
+        <v>0.01136030434517311</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01569457222971444</v>
+        <v>0.0110842909128442</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01545620138531746</v>
+        <v>0.01096767174618517</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01364670062687473</v>
+        <v>0.01092230988806739</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01335326108398367</v>
+        <v>0.01084057441150397</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.0131637000263601</v>
+        <v>0.01079169198246969</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01312447074968558</v>
+        <v>0.01060578429268759</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01210070433937228</v>
+        <v>0.01052443743455213</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01205784681589256</v>
+        <v>0.01033623699912422</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01197309328782894</v>
+        <v>0.0102766669792377</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01184660696260815</v>
+        <v>0.01021295495257002</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01118268247009469</v>
+        <v>0.01005108797917986</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01075091954720798</v>
+        <v>0.01000873091214271</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.009941260787806541</v>
+        <v>0.009912511185295398</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.009761267711416695</v>
+        <v>0.009848238091125302</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.00970282748856874</v>
+        <v>0.009684124616789965</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009392706902489459</v>
+        <v>0.009675656217608733</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.008948333067860196</v>
+        <v>0.009648689513137043</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.008288604203504839</v>
+        <v>0.00958979924098294</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.008211160799713395</v>
+        <v>0.009375568396458903</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.007591229060434783</v>
+        <v>0.009328425799319718</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.007289891305563414</v>
+        <v>0.009248584413238311</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.007054987947386627</v>
+        <v>0.009216484322031836</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.006991488923779454</v>
+        <v>0.009208349807188678</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.006916418731243883</v>
+        <v>0.009207746851829152</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.006566350120368279</v>
+        <v>0.009189225182578647</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.00595319455124094</v>
+        <v>0.009008102000252769</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.005853785575607222</v>
+        <v>0.008991456119816955</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.005750879280735606</v>
+        <v>0.008940274890332339</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.005307884132640101</v>
+        <v>0.008929342426980113</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.005051521653337819</v>
+        <v>0.008878620564538451</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.004974122369715398</v>
+        <v>0.008843889342550777</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.004951802235623501</v>
+        <v>0.008817799719941026</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.004503374876197154</v>
+        <v>0.008765806738026979</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.004441262629915884</v>
+        <v>0.00867983612042908</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.004151582502717807</v>
+        <v>0.00861092896736374</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.004130357215256152</v>
+        <v>0.008478683771935863</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.003949535651691389</v>
+        <v>0.008472322277952834</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.0034845457135132</v>
+        <v>0.008451061494719208</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.002633748010234963</v>
+        <v>0.00844089514277988</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.002493470621379096</v>
+        <v>0.008439830848283064</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.00236224405581492</v>
+        <v>0.008407603475438891</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.002348739843654304</v>
+        <v>0.008393280003732264</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.002240246007168401</v>
+        <v>0.008327251219879185</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.001942645765731011</v>
+        <v>0.008324389906042971</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.001388149292761727</v>
+        <v>0.008311618824976937</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.00129981372927615</v>
+        <v>0.008299116439715046</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.001268710614163553</v>
+        <v>0.008277790274432187</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.001200327079037806</v>
+        <v>0.008245630998936168</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.001116449504221238</v>
+        <v>0.008191782458643012</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.001078448054960056</v>
+        <v>0.008178670230893713</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.001075407270334004</v>
+        <v>0.00816443117110976</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0008253105170278385</v>
+        <v>0.008139197625879897</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.0008207599391200881</v>
+        <v>0.008114051430614439</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.00063720920456358</v>
+        <v>0.00809252246551396</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.000459570610741877</v>
+        <v>0.008064180835170787</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0003972599159088144</v>
+        <v>0.008053888303014942</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.0003705336908914052</v>
+        <v>0.007969452973535709</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.0003694156196844662</v>
+        <v>0.007949239441321143</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.0003292736645154575</v>
+        <v>0.007862769850697341</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.0003170359686630206</v>
+        <v>0.007854341067061012</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.000314760707468709</v>
+        <v>0.007798308729223417</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.0002228340415493719</v>
+        <v>0.007769401380175294</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.000210494822964386</v>
+        <v>0.007754445494827895</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.0002069571841914102</v>
+        <v>0.00774063642607945</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.0001337828231625659</v>
+        <v>0.007733918708481114</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.0001123697389546496</v>
+        <v>0.007650796236419163</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>7.797614719532724E-05</v>
+        <v>0.007528787023312466</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.301230214895447E-05</v>
+        <v>0.007463542136573291</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1.083511795847874E-05</v>
+        <v>0.007406120043191256</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>4.934035067312277E-17</v>
+        <v>0.007403391249872167</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2.590436534915731E-17</v>
+        <v>0.007333445308068587</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>9.936820084332223E-18</v>
+        <v>0.007279637322783063</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>6.525022471728193E-18</v>
+        <v>0.007168242416337666</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.007140273518563951</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.007123032656184112</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.00689759723426422</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.006452902387444434</v>
       </c>
     </row>
   </sheetData>
